--- a/va_facility_data_2025-02-20/Syracuse VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Syracuse%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Syracuse VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Syracuse%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R9a62621fa1ea4ca6a947c3360f66ba0c"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0ab4200d8ae0455a8fa08646003b8459"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R79369339b650474e8ac9e0584705fb81"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rf01d9cc1eb9a4f60a7315822504eada5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdc3fe7cc799749c789ca5c7733b1154a"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb1338868838a4824a126a45e0c523c6a"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R900475745b3d4643b489f90156f56739"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R1d0a3314c1544ae8a6b92b3523390487"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R6aa9902d6fc94cb19682dadcac47cd21"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Recd080775774450591466d1ca1fd4463"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rbe52831df754403db5bb25f2fca1cb2a"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re06375171e524323ac27d7a8f7ab9141"/>
   </x:sheets>
 </x:workbook>
 </file>
